--- a/Prioritization in regression.xlsx
+++ b/Prioritization in regression.xlsx
@@ -1,25 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_training\ulyana-barchuk\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12030" windowHeight="4275"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Task 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Task 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="H2">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">Оранжевым выделено там где нужна регрессия, основывалась на выборку тестов для регрессии ( безопасность, критичные функции и тд) Так же смотрела в динамике автомотизацию она хоть и была но все равно дефекты оставались после трех проведенных тестов и не шли на убыль
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Оранжевым выделено там где нужна регрессия, основывалась на выборку тестов для регрессии ( безопасность, критичные функции и тд) Так же смотрела в динамике автомотизацию она хоть и была но все равно дефекты оставались после трех проведенных тестов и не шли на убыль
 	-Ulyana Barchuk</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -27,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
   <si>
     <t>Summary</t>
   </si>
@@ -59,9 +75,6 @@
     <t>No</t>
   </si>
   <si>
-    <t xml:space="preserve">    </t>
-  </si>
-  <si>
     <t>Registration via Google</t>
   </si>
   <si>
@@ -105,41 +118,73 @@
   </si>
   <si>
     <t>Оранжевым выделено там где нужна регрессия(см.комментарии)</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">нет автомотизации,высокий приоритет </t>
+  </si>
+  <si>
+    <t>приоритет высокий,есть автомотизация</t>
+  </si>
+  <si>
+    <t>количество багов растет от спринта к спринту</t>
+  </si>
+  <si>
+    <t>низкий приоритет,GUI задача</t>
+  </si>
+  <si>
+    <t>большое количество багов каждый спринт</t>
+  </si>
+  <si>
+    <t>высокий приоритет</t>
+  </si>
+  <si>
+    <t>приоритет низкий,есть автомотизация</t>
+  </si>
+  <si>
+    <t>средний приоритет,немного багов</t>
+  </si>
+  <si>
+    <t>несмотря на автомотизацию лучше продолжить регрессию</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Roboto"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -149,7 +194,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -171,59 +216,83 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -413,31 +482,36 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF6AA84F"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="55.38"/>
-    <col customWidth="1" min="2" max="2" width="8.75"/>
-    <col customWidth="1" min="3" max="3" width="13.0"/>
-    <col customWidth="1" min="4" max="4" width="13.88"/>
-    <col customWidth="1" min="5" max="6" width="14.25"/>
-    <col customWidth="1" min="7" max="7" width="11.38"/>
-    <col customWidth="1" min="8" max="8" width="19.75"/>
-    <col customWidth="1" min="9" max="9" width="20.5"/>
+    <col min="1" max="1" width="55.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" ht="60.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,8 +533,11 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="H1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="43.5" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -471,105 +548,128 @@
         <v>9</v>
       </c>
       <c r="D2" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E2" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="38.25">
+      <c r="A3" s="4" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5">
+        <v>10</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="38.25">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5">
-        <v>10.0</v>
-      </c>
-      <c r="E3" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3">
+        <v>10</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="25.5">
+      <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="F4" s="3">
-        <v>10.0</v>
-      </c>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="25.5">
+      <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3">
+        <v>11</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15">
+      <c r="A7" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="3">
-        <v>13.0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>12.0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>11.0</v>
-      </c>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>8</v>
@@ -578,124 +678,154 @@
         <v>9</v>
       </c>
       <c r="D7" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E7" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F7" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8">
+        <v>2</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="25.5">
       <c r="A8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="42.75" customHeight="1">
+      <c r="A9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="E8" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F8" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="12">
+        <v>15</v>
+      </c>
+      <c r="E9" s="12">
+        <v>20</v>
+      </c>
+      <c r="F9" s="12">
+        <v>20</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="38.25">
+      <c r="A10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>20.0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>20.0</v>
-      </c>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
+      <c r="B10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0</v>
+      </c>
+      <c r="E10" s="12">
+        <v>2</v>
+      </c>
+      <c r="F10" s="12">
+        <v>2</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="51">
+      <c r="A11" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E10" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="3">
         <v>12</v>
       </c>
-      <c r="D11" s="3">
-        <v>12.0</v>
-      </c>
       <c r="E11" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F11" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="25.5">
+      <c r="A12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F12" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -704,14 +834,14 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:9">
       <c r="I15" s="10"/>
     </row>
-    <row r="19">
+    <row r="19" spans="9:9">
       <c r="I19" s="10"/>
     </row>
   </sheetData>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>